--- a/Datos/Sender Gmail Emails/Datos.xlsx
+++ b/Datos/Sender Gmail Emails/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgau\Desktop\Python\Microsoft Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgau\Documents\GitHub\Python\Datos\Sender Gmail Emails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB08D55D-D7A0-412B-9482-ADF95443FC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8F9B1-9454-4C8B-ABCF-CB5F9578C383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="420" windowWidth="20085" windowHeight="11295" xr2:uid="{CF50C69C-716B-4C67-83EA-0DF61D9AFFB5}"/>
+    <workbookView xWindow="1560" yWindow="1005" windowWidth="17115" windowHeight="14475" xr2:uid="{CF50C69C-716B-4C67-83EA-0DF61D9AFFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulario" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Mary Sherman</t>
-  </si>
-  <si>
-    <t>scottjeffrey@yahoo.com</t>
   </si>
   <si>
     <t>7963 Sanders Gateway
@@ -78,9 +75,6 @@
     <t>John Bell</t>
   </si>
   <si>
-    <t>ingramchristie@hotmail.com</t>
-  </si>
-  <si>
     <t>029 Olson Trace
 Reesetown, RI 19100</t>
   </si>
@@ -97,9 +91,6 @@
     <t>Kenneth Warner</t>
   </si>
   <si>
-    <t>xthomas@gmail.com</t>
-  </si>
-  <si>
     <t>53537 Carlos Branch Apt. 400
 Martinezborough, VA 54543</t>
   </si>
@@ -116,9 +107,6 @@
     <t>Melissa Davidson</t>
   </si>
   <si>
-    <t>stevensmatthew@yahoo.com</t>
-  </si>
-  <si>
     <t>6530 Mcknight Roads
 Taylorside, MO 43710</t>
   </si>
@@ -135,9 +123,6 @@
     <t>Tamara Cruz</t>
   </si>
   <si>
-    <t>huntarthur@hotmail.com</t>
-  </si>
-  <si>
     <t>PSC 5362, Box 4376
 APO AE 59075</t>
   </si>
@@ -151,9 +136,6 @@
     <t>Andrew Jones</t>
   </si>
   <si>
-    <t>kreynolds@yahoo.com</t>
-  </si>
-  <si>
     <t>61636 Douglas Avenue
 Lake George, CA 99033</t>
   </si>
@@ -170,9 +152,6 @@
     <t>Daniel Dean</t>
   </si>
   <si>
-    <t>gregorymartin@yahoo.com</t>
-  </si>
-  <si>
     <t>1122 Torres Mountain Apt. 745
 Andersonberg, NY 01881</t>
   </si>
@@ -186,9 +165,6 @@
     <t>Jesus Hutchinson</t>
   </si>
   <si>
-    <t>susan28@gmail.com</t>
-  </si>
-  <si>
     <t>662 Lee Passage Apt. 337
 Smithshire, MA 42315</t>
   </si>
@@ -205,9 +181,6 @@
     <t>Tanya Garner</t>
   </si>
   <si>
-    <t>andrea66@hotmail.com</t>
-  </si>
-  <si>
     <t>17891 Julian Springs
 Port Kyleberg, ME 18203</t>
   </si>
@@ -224,9 +197,6 @@
     <t>Danny Thompson</t>
   </si>
   <si>
-    <t>zrivera@gmail.com</t>
-  </si>
-  <si>
     <t>78669 David Port Apt. 228
 Cruzfort, PA 82172</t>
   </si>
@@ -238,13 +208,16 @@
   </si>
   <si>
     <t>(437)958-9174</t>
+  </si>
+  <si>
+    <t>edgaus98@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +229,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,8 +259,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -287,9 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,7 +588,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,98 +620,98 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <f>1-592-204-7766</f>
@@ -737,39 +720,39 @@
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <f>1-942-494-9903</f>
@@ -778,69 +761,73 @@
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1E689581-0A7A-4F9B-BB71-06368F9E14B1}"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="edgaus98@gmail.com" xr:uid="{73C77C0A-0BB4-4585-ADA1-C72BB02B62CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>